--- a/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -154,15 +154,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -181,10 +181,10 @@
     <t>save</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -1923,25 +1923,25 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6550218340611353</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L29">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1949,25 +1949,25 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.6453900709219859</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L30">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1975,25 +1975,25 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.6304347826086957</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -2157,25 +2157,25 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5562310030395137</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="L38">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="M38">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2183,25 +2183,25 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5402298850574713</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="10:17">
